--- a/public/form_upload/std_sell_multiple.xlsx
+++ b/public/form_upload/std_sell_multiple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19980" windowHeight="8400" tabRatio="584" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19980" windowHeight="8400" tabRatio="584"/>
   </bookViews>
   <sheets>
     <sheet name="standard_multiple" sheetId="2" r:id="rId1"/>
@@ -696,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1569,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1586,7 +1586,7 @@
     <col min="12" max="12" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="66">
+    <row r="1" spans="1:29" ht="54">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
